--- a/controlDedicacion.xlsx
+++ b/controlDedicacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t xml:space="preserve">NIP del estudiante:</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">25/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">30min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diseño</t>
   </si>
   <si>
@@ -84,18 +81,12 @@
     <t xml:space="preserve">Diseño de la solución</t>
   </si>
   <si>
-    <t xml:space="preserve">45min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Programación</t>
   </si>
   <si>
     <t xml:space="preserve">Tarea 1 completada</t>
   </si>
   <si>
-    <t xml:space="preserve">15min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pruebas</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t xml:space="preserve">28/11/21</t>
   </si>
   <si>
-    <t xml:space="preserve">1h 45min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tareas 2 y 3 completadas, tarea 4 completada con errores</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t xml:space="preserve">Preparar defensa</t>
   </si>
   <si>
-    <t xml:space="preserve">1h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Errores de la tarea 4 solucionados, tarea 5 realizada</t>
   </si>
   <si>
@@ -148,6 +133,18 @@
   </si>
   <si>
     <t xml:space="preserve">Tareas 1 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas 7 – 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas 7 – 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas 9 y 10</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo total dedicado    </t>
@@ -226,9 +223,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -323,6 +321,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -332,13 +337,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -404,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,7 +435,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,7 +451,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,7 +459,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,8 +483,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -514,55 +516,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.15"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="n">
         <v>845355</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -570,286 +584,600 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C6/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <f aca="false">MOD(C6,60)</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D6=0, "", _xlfn.CONCAT(D6, "h")), IF(E6=0, "", _xlfn.CONCAT(E6, "min")))</f>
+        <v>30min</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="7"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C7/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <f aca="false">MOD(C7,60)</f>
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D7=0, "", _xlfn.CONCAT(D7, "h")), IF(E7=0, "", _xlfn.CONCAT(E7, "min")))</f>
+        <v>45min</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>14</v>
+      <c r="L7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C8/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <f aca="false">MOD(C8,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D8=0, "", _xlfn.CONCAT(D8, "h")), IF(E8=0, "", _xlfn.CONCAT(E8, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C9" s="11" t="n">
+        <v>105</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C9/60)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">MOD(C9,60)</f>
+        <v>45</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D9=0, "", _xlfn.CONCAT(D9, "h")), IF(E9=0, "", _xlfn.CONCAT(E9, "min")))</f>
+        <v>1h45min</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="L9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C10/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <f aca="false">MOD(C10,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D10=0, "", _xlfn.CONCAT(D10, "h")), IF(E10=0, "", _xlfn.CONCAT(E10, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="L10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C11/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <f aca="false">MOD(C11,60)</f>
+        <v>30</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D11=0, "", _xlfn.CONCAT(D11, "h")), IF(E11=0, "", _xlfn.CONCAT(E11, "min")))</f>
+        <v>30min</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="n">
         <v>44328</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>29</v>
+      <c r="C12" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C12/60)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <f aca="false">MOD(C12,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D12=0, "", _xlfn.CONCAT(D12, "h")), IF(E12=0, "", _xlfn.CONCAT(E12, "min")))</f>
+        <v>1h</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="14"/>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
+      <c r="C13" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C13/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <f aca="false">MOD(C13,60)</f>
+        <v>45</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D13=0, "", _xlfn.CONCAT(D13, "h")), IF(E13=0, "", _xlfn.CONCAT(E13, "min")))</f>
+        <v>45min</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="14" t="n">
         <v>44389</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>31</v>
+      <c r="C14" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C14/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <f aca="false">MOD(C14,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D14=0, "", _xlfn.CONCAT(D14, "h")), IF(E14=0, "", _xlfn.CONCAT(E14, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="14"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C15/60)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="n">
+        <f aca="false">MOD(C15,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D15=0, "", _xlfn.CONCAT(D15, "h")), IF(E15=0, "", _xlfn.CONCAT(E15, "min")))</f>
+        <v>1h</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>33</v>
+      <c r="C16" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C16/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <f aca="false">MOD(C16,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D16=0, "", _xlfn.CONCAT(D16, "h")), IF(E16=0, "", _xlfn.CONCAT(E16, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="14"/>
-      <c r="C17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C17/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <f aca="false">MOD(C17,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D17=0, "", _xlfn.CONCAT(D17, "h")), IF(E17=0, "", _xlfn.CONCAT(E17, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C18/60)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">MOD(C18,60)</f>
+        <v>30</v>
+      </c>
+      <c r="F18" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D18=0, "", _xlfn.CONCAT(D18, "h")), IF(E18=0, "", _xlfn.CONCAT(E18, "min")))</f>
+        <v>1h30min</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C19/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <f aca="false">MOD(C19,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F19" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D19=0, "", _xlfn.CONCAT(D19, "h")), IF(E19=0, "", _xlfn.CONCAT(E19, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C20/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <f aca="false">MOD(C20,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D20=0, "", _xlfn.CONCAT(D20, "h")), IF(E20=0, "", _xlfn.CONCAT(E20, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C21/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <f aca="false">MOD(C21,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D21=0, "", _xlfn.CONCAT(D21, "h")), IF(E21=0, "", _xlfn.CONCAT(E21, "min")))</f>
+        <v/>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C24/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="12" t="n">
+        <f aca="false">MOD(C24,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D24=0, "", _xlfn.CONCAT(D24, "h")), IF(E24=0, "", _xlfn.CONCAT(E24, "min")))</f>
+        <v/>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C25/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="n">
+        <f aca="false">MOD(C25,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D25=0, "", _xlfn.CONCAT(D25, "h")), IF(E25=0, "", _xlfn.CONCAT(E25, "min")))</f>
+        <v/>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C26/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="n">
+        <f aca="false">MOD(C26,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D26=0, "", _xlfn.CONCAT(D26, "h")), IF(E26=0, "", _xlfn.CONCAT(E26, "min")))</f>
+        <v/>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C27/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <f aca="false">MOD(C27,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="n">
+        <f aca="false">SUM(C6:C27)</f>
+        <v>570</v>
+      </c>
+      <c r="D28" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C28/60)</f>
+        <v>9</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <f aca="false">MOD(C28,60)</f>
+        <v>30</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="18" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D28=0, "", _xlfn.CONCAT(D28, "h")),, IF(E28=0, "", _xlfn.CONCAT(E28, "min")))</f>
+        <v>9h30min</v>
+      </c>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-    </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B33:H34"/>
+    <mergeCell ref="B35:H36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/controlDedicacion.xlsx
+++ b/controlDedicacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t xml:space="preserve">NIP del estudiante:</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Pruebas</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarea 1, usando script de Python para comprobar validez de los resultados</t>
+    <t xml:space="preserve">Tarea 1 </t>
   </si>
   <si>
     <t xml:space="preserve">28/11/21</t>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Otros</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprobar la parte 1</t>
+    <t xml:space="preserve">Comprobar (y solucionar errores de) parte 1</t>
   </si>
   <si>
     <t xml:space="preserve">Tareas 6 - 8</t>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tareas 9 y 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/12/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejoras estilísticas</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo total dedicado    </t>
@@ -402,7 +408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,10 +469,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,7 +485,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,17 +520,16 @@
   </sheetPr>
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.81"/>
@@ -640,7 +641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7"/>
       <c r="C8" s="11" t="n">
         <v>15</v>
@@ -754,7 +755,7 @@
       <c r="B12" s="14" t="n">
         <v>44328</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="11" t="n">
         <v>60</v>
       </c>
       <c r="D12" s="12" t="n">
@@ -781,7 +782,7 @@
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="14"/>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="11" t="n">
         <v>45</v>
       </c>
       <c r="D13" s="12" t="n">
@@ -807,7 +808,7 @@
       <c r="B14" s="14" t="n">
         <v>44389</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D14" s="12" t="n">
@@ -831,7 +832,7 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="14"/>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="11" t="n">
         <v>60</v>
       </c>
       <c r="D15" s="12" t="n">
@@ -855,7 +856,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="14"/>
-      <c r="C16" s="15" t="n">
+      <c r="C16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="12" t="n">
@@ -879,7 +880,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="14"/>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D17" s="12" t="n">
@@ -976,37 +977,66 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="D21" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C21/60)</f>
         <v>0</v>
       </c>
       <c r="E21" s="12" t="n">
         <f aca="false">MOD(C21,60)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F21" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D21=0, "", _xlfn.CONCAT(D21, "h")), IF(E21=0, "", _xlfn.CONCAT(E21, "min")))</f>
-        <v/>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+        <v>30min</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="C22" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C22/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="n">
+        <f aca="false">MOD(C22,60)</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D22=0, "", _xlfn.CONCAT(D22, "h")), IF(E22=0, "", _xlfn.CONCAT(E22, "min")))</f>
+        <v>15min</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C23/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="n">
+        <f aca="false">MOD(C23,60)</f>
+        <v>0</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
@@ -1066,8 +1096,8 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C27/60)</f>
         <v>0</v>
@@ -1076,95 +1106,95 @@
         <f aca="false">MOD(C27,60)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="n">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="n">
         <f aca="false">SUM(C6:C27)</f>
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="D28" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C28/60)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">MOD(C28,60)</f>
-        <v>30</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20" t="str">
+      <c r="B29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D28=0, "", _xlfn.CONCAT(D28, "h")),, IF(E28=0, "", _xlfn.CONCAT(E28, "min")))</f>
-        <v>9h30min</v>
-      </c>
-      <c r="H29" s="21"/>
+        <v>10h15min</v>
+      </c>
+      <c r="H29" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="B31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="B33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -1174,6 +1204,7 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B33:H34"/>

--- a/controlDedicacion.xlsx
+++ b/controlDedicacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">NIP del estudiante:</t>
   </si>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Otros</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprobar (y solucionar errores de) parte 1</t>
+    <t xml:space="preserve">Comprobar (y arreglar errores de) 1ª parte</t>
   </si>
   <si>
     <t xml:space="preserve">Tareas 6 - 8</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mejoras estilísticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 11, el añadido a tarea 3</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo total dedicado    </t>
@@ -518,10 +524,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L36"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1027,26 +1033,39 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="14" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="D23" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C23/60)</f>
         <v>0</v>
       </c>
       <c r="E23" s="12" t="n">
         <f aca="false">MOD(C23,60)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D23=0, "", _xlfn.CONCAT(D23, "h")), IF(E23=0, "", _xlfn.CONCAT(E23, "min")))</f>
+        <v>30min</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="11" t="n">
+        <v>60</v>
+      </c>
       <c r="D24" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C24/60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">MOD(C24,60)</f>
@@ -1054,10 +1073,14 @@
       </c>
       <c r="F24" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D24=0, "", _xlfn.CONCAT(D24, "h")), IF(E24=0, "", _xlfn.CONCAT(E24, "min")))</f>
-        <v/>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+        <v>1h</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="11"/>
@@ -1095,9 +1118,9 @@
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C27/60)</f>
         <v>0</v>
@@ -1106,76 +1129,92 @@
         <f aca="false">MOD(C27,60)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="n">
-        <f aca="false">SUM(C6:C27)</f>
-        <v>615</v>
-      </c>
+      <c r="F27" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D27=0, "", _xlfn.CONCAT(D27, "h")), IF(E27=0, "", _xlfn.CONCAT(E27, "min")))</f>
+        <v/>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C28/60)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">MOD(C28,60)</f>
-        <v>15</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(D28=0, "", _xlfn.CONCAT(D28, "h")),, IF(E28=0, "", _xlfn.CONCAT(E28, "min")))</f>
-        <v>10h15min</v>
-      </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D28=0, "", _xlfn.CONCAT(D28, "h")), IF(E28=0, "", _xlfn.CONCAT(E28, "min")))</f>
+        <v/>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C29/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <f aca="false">MOD(C29,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="n">
+        <f aca="false">SUM(C6:C29)</f>
+        <v>705</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C30/60)</f>
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <f aca="false">MOD(C30,60)</f>
+        <v>45</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D30=0, "", _xlfn.CONCAT(D30, "h")),, IF(E30=0, "", _xlfn.CONCAT(E30, "min")))</f>
+        <v>11h45min</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -1193,8 +1232,28 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -1205,10 +1264,11 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B33:H34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B33:H33"/>
     <mergeCell ref="B35:H36"/>
+    <mergeCell ref="B37:H38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/controlDedicacion.xlsx
+++ b/controlDedicacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t xml:space="preserve">NIP del estudiante:</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tarea 11, el añadido a tarea 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas 12 y 13</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo total dedicado    </t>
@@ -524,18 +527,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.81"/>
@@ -1084,39 +1088,51 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="D25" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C25/60)</f>
         <v>0</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">MOD(C25,60)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F25" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D25=0, "", _xlfn.CONCAT(D25, "h")), IF(E25=0, "", _xlfn.CONCAT(E25, "min")))</f>
-        <v/>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
+        <v>30min</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="11" t="n">
+        <v>45</v>
+      </c>
       <c r="D26" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C26/60)</f>
         <v>0</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">MOD(C26,60)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D26=0, "", _xlfn.CONCAT(D26, "h")), IF(E26=0, "", _xlfn.CONCAT(E26, "min")))</f>
-        <v/>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+        <v>45min</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="11"/>
@@ -1154,9 +1170,9 @@
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C29/60)</f>
         <v>0</v>
@@ -1165,92 +1181,218 @@
         <f aca="false">MOD(C29,60)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="n">
-        <f aca="false">SUM(C6:C29)</f>
-        <v>705</v>
-      </c>
+      <c r="F29" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D29=0, "", _xlfn.CONCAT(D29, "h")), IF(E29=0, "", _xlfn.CONCAT(E29, "min")))</f>
+        <v/>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C30/60)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">MOD(C30,60)</f>
-        <v>45</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(D30=0, "", _xlfn.CONCAT(D30, "h")),, IF(E30=0, "", _xlfn.CONCAT(E30, "min")))</f>
-        <v>11h45min</v>
-      </c>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D30=0, "", _xlfn.CONCAT(D30, "h")), IF(E30=0, "", _xlfn.CONCAT(E30, "min")))</f>
+        <v/>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C31/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12" t="n">
+        <f aca="false">MOD(C31,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D31=0, "", _xlfn.CONCAT(D31, "h")), IF(E31=0, "", _xlfn.CONCAT(E31, "min")))</f>
+        <v/>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C32/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="12" t="n">
+        <f aca="false">MOD(C32,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D32=0, "", _xlfn.CONCAT(D32, "h")), IF(E32=0, "", _xlfn.CONCAT(E32, "min")))</f>
+        <v/>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C33/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="n">
+        <f aca="false">MOD(C33,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D33=0, "", _xlfn.CONCAT(D33, "h")), IF(E33=0, "", _xlfn.CONCAT(E33, "min")))</f>
+        <v/>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C34/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <f aca="false">MOD(C34,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D34=0, "", _xlfn.CONCAT(D34, "h")), IF(E34=0, "", _xlfn.CONCAT(E34, "min")))</f>
+        <v/>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C35/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <f aca="false">MOD(C35,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D35=0, "", _xlfn.CONCAT(D35, "h")), IF(E35=0, "", _xlfn.CONCAT(E35, "min")))</f>
+        <v/>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C36/60)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <f aca="false">MOD(C36,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="n">
+        <f aca="false">SUM(C6:C36)</f>
+        <v>780</v>
+      </c>
+      <c r="D37" s="12" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(C37/60)</f>
+        <v>13</v>
+      </c>
+      <c r="E37" s="12" t="n">
+        <f aca="false">MOD(C37,60)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="22" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(D37=0, "", _xlfn.CONCAT(D37, "h")),, IF(E37=0, "", _xlfn.CONCAT(E37, "min")))</f>
+        <v>13h</v>
+      </c>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="22" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1265,10 +1407,10 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B42:H43"/>
+    <mergeCell ref="B44:H45"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/controlDedicacion.xlsx
+++ b/controlDedicacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t xml:space="preserve">NIP del estudiante:</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve">Tareas 12 y 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar archivos para entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas 11 y 12</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo total dedicado    </t>
@@ -529,8 +538,8 @@
   </sheetPr>
   <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1113,19 +1122,19 @@
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D26" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C26/60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">MOD(C26,60)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D26=0, "", _xlfn.CONCAT(D26, "h")), IF(E26=0, "", _xlfn.CONCAT(E26, "min")))</f>
-        <v>45min</v>
+        <v>1h</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>12</v>
@@ -1136,57 +1145,75 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="D27" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C27/60)</f>
         <v>0</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">MOD(C27,60)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F27" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D27=0, "", _xlfn.CONCAT(D27, "h")), IF(E27=0, "", _xlfn.CONCAT(E27, "min")))</f>
-        <v/>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+        <v>15min</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="D28" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C28/60)</f>
         <v>0</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">MOD(C28,60)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F28" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D28=0, "", _xlfn.CONCAT(D28, "h")), IF(E28=0, "", _xlfn.CONCAT(E28, "min")))</f>
-        <v/>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+        <v>15min</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="D29" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C29/60)</f>
         <v>0</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">MOD(C29,60)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F29" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D29=0, "", _xlfn.CONCAT(D29, "h")), IF(E29=0, "", _xlfn.CONCAT(E29, "min")))</f>
-        <v/>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+        <v>15min</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="11"/>
@@ -1315,11 +1342,11 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="n">
         <f aca="false">SUM(C6:C36)</f>
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="D37" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C37/60)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">MOD(C37,60)</f>
@@ -1331,7 +1358,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -1339,13 +1366,13 @@
       <c r="F38" s="18"/>
       <c r="G38" s="19" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D37=0, "", _xlfn.CONCAT(D37, "h")),, IF(E37=0, "", _xlfn.CONCAT(E37, "min")))</f>
-        <v>13h</v>
+        <v>14h</v>
       </c>
       <c r="H38" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -1356,7 +1383,7 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -1376,7 +1403,7 @@
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>

--- a/controlDedicacion.xlsx
+++ b/controlDedicacion.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="B2:L45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1122,7 +1122,7 @@
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D26" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C26/60)</f>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">MOD(C26,60)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F26" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D26=0, "", _xlfn.CONCAT(D26, "h")), IF(E26=0, "", _xlfn.CONCAT(E26, "min")))</f>
-        <v>1h</v>
+        <v>1h15min</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>12</v>
@@ -1170,7 +1170,7 @@
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D28" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C28/60)</f>
@@ -1178,11 +1178,11 @@
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">MOD(C28,60)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F28" s="12" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D28=0, "", _xlfn.CONCAT(D28, "h")), IF(E28=0, "", _xlfn.CONCAT(E28, "min")))</f>
-        <v>15min</v>
+        <v>30min</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>24</v>
@@ -1342,7 +1342,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="n">
         <f aca="false">SUM(C6:C36)</f>
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="D37" s="12" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(C37/60)</f>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">MOD(C37,60)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -1366,7 +1366,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="19" t="str">
         <f aca="false">_xlfn.CONCAT(IF(D37=0, "", _xlfn.CONCAT(D37, "h")),, IF(E37=0, "", _xlfn.CONCAT(E37, "min")))</f>
-        <v>14h</v>
+        <v>14h30min</v>
       </c>
       <c r="H38" s="20"/>
     </row>
